--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-platform-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-platform-category-lov.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861781F7-6961-4185-B0F0-75CBF24B4E2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,18 +22,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -46,6 +53,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +85,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +155,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -161,6 +174,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -179,6 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -200,6 +215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -260,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -280,6 +299,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +311,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -309,6 +330,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -338,6 +361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -356,6 +380,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -374,6 +399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -392,6 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -439,6 +466,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -457,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -475,6 +504,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -493,6 +523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -522,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -540,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -559,6 +593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -577,6 +612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -596,6 +632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -614,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -643,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -661,6 +701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -684,6 +725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -702,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -720,6 +763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -738,6 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -756,6 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -785,6 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -815,6 +864,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -843,6 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -861,6 +913,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -884,6 +937,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -902,6 +956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -921,6 +976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -940,6 +996,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -959,6 +1016,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -979,6 +1037,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -998,6 +1057,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1032,6 +1092,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1052,6 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1081,6 +1144,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1101,6 +1165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1119,6 +1184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1149,6 +1216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1167,6 +1235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1185,6 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1217,6 +1288,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1235,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1253,6 +1326,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1271,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1313,6 +1390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1355,6 +1435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1450,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1387,6 +1469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1405,6 +1488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1424,6 +1508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1447,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1465,6 +1551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1483,6 +1570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1502,6 +1590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1522,6 +1611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1622,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1570,6 +1663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1588,6 +1682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1606,6 +1701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1625,6 +1721,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1643,6 +1740,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1661,6 +1759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1680,6 +1779,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1698,6 +1798,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1716,6 +1817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1734,6 +1836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1753,6 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1812,6 +1920,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +1932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1841,6 +1951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1860,6 +1971,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2113,19 +2225,25 @@
   </si>
   <si>
     <t>table_field_width</t>
+  </si>
+  <si>
+    <t>HMSG.TEMP_SERVER.SUBCATEGORY</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE-COMMENT-NOTICE</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论通知</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2136,25 +2254,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2200,157 +2318,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -2379,12 +2346,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2393,8 +2362,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2425,194 +2429,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2713,254 +2531,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2975,20 +2551,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3022,9 +2586,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3032,59 +2593,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3157,6 +2687,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3414,280 +2947,277 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="12"/>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="11"/>
     </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="15" t="s">
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="20"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="25" t="s">
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="22" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+    <row r="13" spans="1:8">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+    <row r="14" spans="1:8">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="30" t="s">
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="34" t="s">
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="33"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="33"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="36" t="s">
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:W16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.8296296296296" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="44.4148148148148" customWidth="1"/>
-    <col min="8" max="8" width="38.0814814814815" customWidth="1"/>
-    <col min="9" max="9" width="22.9111111111111" customWidth="1"/>
-    <col min="10" max="10" width="31.4148148148148" customWidth="1"/>
-    <col min="11" max="11" width="34.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="24.3333333333333" customWidth="1"/>
-    <col min="13" max="14" width="25.8296296296296" customWidth="1"/>
-    <col min="15" max="15" width="41.0814814814815" customWidth="1"/>
-    <col min="16" max="16" width="15.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" customWidth="1"/>
+    <col min="8" max="8" width="38.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="31.44140625" customWidth="1"/>
+    <col min="11" max="11" width="34.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="14" width="25.77734375" customWidth="1"/>
+    <col min="15" max="15" width="41.109375" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="20" max="20" width="14.9111111111111" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3701,7 +3231,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:23">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3783,7 +3313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="5:22">
+    <row r="8" spans="1:23">
       <c r="E8" t="s">
         <v>73</v>
       </c>
@@ -3818,7 +3348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="5:22">
+    <row r="9" spans="1:23">
       <c r="E9" t="s">
         <v>79</v>
       </c>
@@ -3859,7 +3389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:23" ht="18" customHeight="1">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3921,7 +3451,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="5:20">
+    <row r="12" spans="1:23">
       <c r="E12" t="s">
         <v>95</v>
       </c>
@@ -3963,124 +3493,166 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="8:8">
-      <c r="H13" s="5"/>
+    <row r="13" spans="1:23">
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="str">
+        <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13">
+        <v>15</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>100</v>
+      </c>
+      <c r="T13" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
+    <row r="14" spans="1:23">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>105</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K15" t="s">
         <v>68</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" t="s">
         <v>69</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M15" t="s">
         <v>109</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N15" t="s">
         <v>110</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O15" t="s">
         <v>111</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P15" t="s">
         <v>112</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q15" t="s">
         <v>113</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R15" t="s">
         <v>114</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S15" t="s">
         <v>115</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>121</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J17" t="s">
         <v>122</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K17" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M17" t="s">
         <v>124</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N17" t="s">
         <v>125</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O17" t="s">
         <v>126</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P17" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-platform-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-platform-category-lov.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\hand\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861781F7-6961-4185-B0F0-75CBF24B4E2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E0DB4-BF33-4371-A6FD-33A0D79880E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,24 @@
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="136">
   <si>
     <r>
       <rPr>
@@ -2236,6 +2249,30 @@
   </si>
   <si>
     <t>评论通知</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORGANIZATION</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>协作通知</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理过程中问题项的处理状态变化：创建、分配、已解决</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collaboration Notification</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agile Notification</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment notification</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2536,7 +2573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2549,9 +2586,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2566,49 +2602,48 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2957,155 +2992,153 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.35546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.35546875" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.35546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="9"/>
+      <c r="A1" s="8"/>
       <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="11"/>
+    <row r="2" spans="1:8">
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="35" t="s">
+    <row r="4" spans="1:8">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="15" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="21" t="s">
+    <row r="9" spans="1:8" ht="49.5">
+      <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="24" t="s">
+    <row r="10" spans="1:8" ht="49.5">
+      <c r="C10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="18" t="s">
+    <row r="11" spans="1:8" ht="66">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="C13" s="17"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="C14" s="17"/>
+      <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="26" t="s">
+    <row r="15" spans="1:8" ht="33">
+      <c r="C15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3115,64 +3148,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="29" t="s">
+    <row r="20" spans="3:5">
+      <c r="C20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="29" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="29" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="29" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="33"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="19" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33"/>
+      <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="31" t="s">
+    <row r="27" spans="3:5" ht="49.5">
+      <c r="C27" s="29" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3194,27 +3227,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28.78515625" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" customWidth="1"/>
-    <col min="8" max="8" width="38.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="31.44140625" customWidth="1"/>
-    <col min="11" max="11" width="34.33203125" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="14" width="25.77734375" customWidth="1"/>
-    <col min="15" max="15" width="41.109375" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" customWidth="1"/>
+    <col min="11" max="11" width="34.35546875" customWidth="1"/>
+    <col min="12" max="12" width="24.35546875" customWidth="1"/>
+    <col min="13" max="14" width="25.78515625" customWidth="1"/>
+    <col min="15" max="15" width="41.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="20" max="20" width="14.88671875" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -3468,8 +3501,8 @@
       <c r="I12" t="s">
         <v>97</v>
       </c>
-      <c r="J12" t="s">
-        <v>97</v>
+      <c r="J12" s="30" t="s">
+        <v>134</v>
       </c>
       <c r="K12" t="s">
         <v>98</v>
@@ -3501,22 +3534,22 @@
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="30" t="s">
         <v>129</v>
       </c>
       <c r="M13" t="s">
@@ -3536,117 +3569,159 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="H14" s="5"/>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="str">
+        <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="T14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" t="s">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>105</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" t="s">
         <v>68</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L16" t="s">
         <v>69</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M16" t="s">
         <v>109</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N16" t="s">
         <v>110</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O16" t="s">
         <v>111</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P16" t="s">
         <v>112</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q16" t="s">
         <v>113</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R16" t="s">
         <v>114</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S16" t="s">
         <v>115</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>121</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J18" t="s">
         <v>122</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K18" t="s">
         <v>91</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M18" t="s">
         <v>124</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N18" t="s">
         <v>125</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O18" t="s">
         <v>126</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P18" t="s">
         <v>71</v>
       </c>
     </row>
